--- a/vgp_database/Rattlesnake_Hills_volcanics.xlsx
+++ b/vgp_database/Rattlesnake_Hills_volcanics.xlsx
@@ -378,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -458,6 +458,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -1347,7 +1350,9 @@
         <v>0.0</v>
       </c>
       <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
+      <c r="AF9" s="28">
+        <v>0.0</v>
+      </c>
       <c r="AG9" s="16">
         <v>1.0</v>
       </c>
@@ -1445,7 +1450,9 @@
         <v>0.0</v>
       </c>
       <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
+      <c r="AF10" s="28">
+        <v>0.0</v>
+      </c>
       <c r="AG10" s="16">
         <v>1.0</v>
       </c>
@@ -1543,7 +1550,9 @@
         <v>0.0</v>
       </c>
       <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
+      <c r="AF11" s="28">
+        <v>0.0</v>
+      </c>
       <c r="AG11" s="16">
         <v>1.0</v>
       </c>
@@ -1641,7 +1650,9 @@
         <v>0.0</v>
       </c>
       <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
+      <c r="AF12" s="28">
+        <v>0.0</v>
+      </c>
       <c r="AG12" s="16">
         <v>1.0</v>
       </c>
@@ -1739,7 +1750,9 @@
         <v>0.0</v>
       </c>
       <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
+      <c r="AF13" s="28">
+        <v>0.0</v>
+      </c>
       <c r="AG13" s="16">
         <v>1.0</v>
       </c>
@@ -1833,7 +1846,9 @@
         <v>0.0</v>
       </c>
       <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
+      <c r="AF14" s="28">
+        <v>0.0</v>
+      </c>
       <c r="AG14" s="16">
         <v>0.0</v>
       </c>
@@ -1935,7 +1950,9 @@
         <v>0.0</v>
       </c>
       <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
+      <c r="AF15" s="28">
+        <v>0.0</v>
+      </c>
       <c r="AG15" s="16">
         <v>1.0</v>
       </c>
@@ -2033,7 +2050,9 @@
         <v>0.0</v>
       </c>
       <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
+      <c r="AF16" s="28">
+        <v>0.0</v>
+      </c>
       <c r="AG16" s="16">
         <v>1.0</v>
       </c>
@@ -2131,7 +2150,9 @@
         <v>0.0</v>
       </c>
       <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
+      <c r="AF17" s="28">
+        <v>0.0</v>
+      </c>
       <c r="AG17" s="16">
         <v>1.0</v>
       </c>
@@ -2229,7 +2250,9 @@
         <v>0.0</v>
       </c>
       <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
+      <c r="AF18" s="28">
+        <v>0.0</v>
+      </c>
       <c r="AG18" s="16">
         <v>1.0</v>
       </c>
@@ -2323,7 +2346,9 @@
         <v>0.0</v>
       </c>
       <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
+      <c r="AF19" s="28">
+        <v>0.0</v>
+      </c>
       <c r="AG19" s="16">
         <v>0.0</v>
       </c>
@@ -2425,7 +2450,9 @@
         <v>0.0</v>
       </c>
       <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
+      <c r="AF20" s="28">
+        <v>0.0</v>
+      </c>
       <c r="AG20" s="16">
         <v>1.0</v>
       </c>
@@ -2523,7 +2550,9 @@
         <v>0.0</v>
       </c>
       <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
+      <c r="AF21" s="28">
+        <v>0.0</v>
+      </c>
       <c r="AG21" s="16">
         <v>1.0</v>
       </c>
@@ -2621,7 +2650,9 @@
         <v>0.0</v>
       </c>
       <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
+      <c r="AF22" s="28">
+        <v>0.0</v>
+      </c>
       <c r="AG22" s="16">
         <v>1.0</v>
       </c>
@@ -2719,7 +2750,9 @@
         <v>0.0</v>
       </c>
       <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
+      <c r="AF23" s="28">
+        <v>0.0</v>
+      </c>
       <c r="AG23" s="16">
         <v>0.0</v>
       </c>
@@ -2821,7 +2854,9 @@
         <v>0.0</v>
       </c>
       <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
+      <c r="AF24" s="28">
+        <v>0.0</v>
+      </c>
       <c r="AG24" s="16">
         <v>1.0</v>
       </c>
@@ -2919,7 +2954,9 @@
         <v>0.0</v>
       </c>
       <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
+      <c r="AF25" s="28">
+        <v>0.0</v>
+      </c>
       <c r="AG25" s="16">
         <v>1.0</v>
       </c>
@@ -3017,7 +3054,9 @@
         <v>0.0</v>
       </c>
       <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
+      <c r="AF26" s="28">
+        <v>0.0</v>
+      </c>
       <c r="AG26" s="16">
         <v>1.0</v>
       </c>
@@ -3115,7 +3154,9 @@
         <v>0.0</v>
       </c>
       <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
+      <c r="AF27" s="28">
+        <v>0.0</v>
+      </c>
       <c r="AG27" s="16">
         <v>1.0</v>
       </c>
@@ -3213,7 +3254,9 @@
         <v>0.0</v>
       </c>
       <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
+      <c r="AF28" s="28">
+        <v>0.0</v>
+      </c>
       <c r="AG28" s="16">
         <v>1.0</v>
       </c>
@@ -3311,7 +3354,9 @@
         <v>0.0</v>
       </c>
       <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
+      <c r="AF29" s="28">
+        <v>0.0</v>
+      </c>
       <c r="AG29" s="16">
         <v>1.0</v>
       </c>
@@ -3335,7 +3380,7 @@
       <c r="A30" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="28"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="25">
         <v>42.7687250970794</v>
       </c>
@@ -3405,7 +3450,9 @@
         <v>0.0</v>
       </c>
       <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
+      <c r="AF30" s="28">
+        <v>0.0</v>
+      </c>
       <c r="AG30" s="16">
         <v>0.0</v>
       </c>
@@ -3477,8 +3524,8 @@
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
